--- a/resource/等级和强度.xlsx
+++ b/resource/等级和强度.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,38 @@
   </si>
   <si>
     <t>magicDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyshield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insanereagent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petsummon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,12 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -463,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -483,7 +516,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -538,8 +571,38 @@
       <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>0</v>
       </c>
@@ -585,8 +648,29 @@
       <c r="R2" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T2" s="1">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -632,8 +716,29 @@
       <c r="R3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T3" s="1">
+        <v>8</v>
+      </c>
+      <c r="U3" s="1">
+        <v>15</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -679,8 +784,29 @@
       <c r="R4" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T4" s="1">
+        <v>8</v>
+      </c>
+      <c r="U4" s="1">
+        <v>20</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -726,8 +852,29 @@
       <c r="R5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T5" s="1">
+        <v>8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>30</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -773,8 +920,29 @@
       <c r="R6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T6" s="1">
+        <v>8</v>
+      </c>
+      <c r="U6" s="1">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -820,8 +988,29 @@
       <c r="R7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T7" s="1">
+        <v>9</v>
+      </c>
+      <c r="U7" s="1">
+        <v>50</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -867,8 +1056,29 @@
       <c r="R8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T8" s="1">
+        <v>9</v>
+      </c>
+      <c r="U8" s="1">
+        <v>60</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -914,8 +1124,29 @@
       <c r="R9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T9" s="1">
+        <v>9</v>
+      </c>
+      <c r="U9" s="1">
+        <v>70</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -961,8 +1192,29 @@
       <c r="R10" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T10" s="1">
+        <v>9</v>
+      </c>
+      <c r="U10" s="1">
+        <v>80</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -1008,8 +1260,29 @@
       <c r="R11" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T11" s="1">
+        <v>9</v>
+      </c>
+      <c r="U11" s="1">
+        <v>90</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -1055,8 +1328,29 @@
       <c r="R12" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1">
+        <v>100</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3</v>
+      </c>
+      <c r="X12" s="1">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -1102,8 +1396,29 @@
       <c r="R13" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T13" s="1">
+        <v>10</v>
+      </c>
+      <c r="U13" s="1">
+        <v>110</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -1149,8 +1464,29 @@
       <c r="R14" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+      <c r="U14" s="1">
+        <v>120</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1196,8 +1532,29 @@
       <c r="R15" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T15" s="1">
+        <v>10</v>
+      </c>
+      <c r="U15" s="1">
+        <v>130</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3</v>
+      </c>
+      <c r="X15" s="1">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1243,8 +1600,29 @@
       <c r="R16" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T16" s="1">
+        <v>10</v>
+      </c>
+      <c r="U16" s="1">
+        <v>140</v>
+      </c>
+      <c r="V16" s="1">
+        <v>3</v>
+      </c>
+      <c r="X16" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -1290,8 +1668,29 @@
       <c r="R17" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T17" s="1">
+        <v>11</v>
+      </c>
+      <c r="U17" s="1">
+        <v>150</v>
+      </c>
+      <c r="V17" s="1">
+        <v>4</v>
+      </c>
+      <c r="X17" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>2.35</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1337,8 +1736,29 @@
       <c r="R18" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T18" s="1">
+        <v>11</v>
+      </c>
+      <c r="U18" s="1">
+        <v>160</v>
+      </c>
+      <c r="V18" s="1">
+        <v>4</v>
+      </c>
+      <c r="X18" s="1">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>150</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1384,8 +1804,29 @@
       <c r="R19" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T19" s="1">
+        <v>11</v>
+      </c>
+      <c r="U19" s="1">
+        <v>170</v>
+      </c>
+      <c r="V19" s="1">
+        <v>4</v>
+      </c>
+      <c r="X19" s="1">
+        <v>66</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>150</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -1431,8 +1872,29 @@
       <c r="R20" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T20" s="1">
+        <v>11</v>
+      </c>
+      <c r="U20" s="1">
+        <v>180</v>
+      </c>
+      <c r="V20" s="1">
+        <v>4</v>
+      </c>
+      <c r="X20" s="1">
+        <v>69</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>150</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -1478,8 +1940,29 @@
       <c r="R21" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T21" s="1">
+        <v>11</v>
+      </c>
+      <c r="U21" s="1">
+        <v>190</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4</v>
+      </c>
+      <c r="X21" s="1">
+        <v>72</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>150</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -1525,8 +2008,29 @@
       <c r="R22" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T22" s="1">
+        <v>12</v>
+      </c>
+      <c r="U22" s="1">
+        <v>200</v>
+      </c>
+      <c r="V22" s="1">
+        <v>5</v>
+      </c>
+      <c r="X22" s="1">
+        <v>75</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>2.65</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>150</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -1572,8 +2076,29 @@
       <c r="R23" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T23" s="1">
+        <v>12</v>
+      </c>
+      <c r="U23" s="1">
+        <v>210</v>
+      </c>
+      <c r="V23" s="1">
+        <v>5</v>
+      </c>
+      <c r="X23" s="1">
+        <v>78</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>200</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -1619,8 +2144,29 @@
       <c r="R24" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T24" s="1">
+        <v>12</v>
+      </c>
+      <c r="U24" s="1">
+        <v>220</v>
+      </c>
+      <c r="V24" s="1">
+        <v>5</v>
+      </c>
+      <c r="X24" s="1">
+        <v>81</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -1666,8 +2212,29 @@
       <c r="R25" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T25" s="1">
+        <v>12</v>
+      </c>
+      <c r="U25" s="1">
+        <v>230</v>
+      </c>
+      <c r="V25" s="1">
+        <v>5</v>
+      </c>
+      <c r="X25" s="1">
+        <v>84</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>200</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -1713,8 +2280,29 @@
       <c r="R26" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="T26" s="1">
+        <v>12</v>
+      </c>
+      <c r="U26" s="1">
+        <v>240</v>
+      </c>
+      <c r="V26" s="1">
+        <v>5</v>
+      </c>
+      <c r="X26" s="1">
+        <v>87</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>2.95</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>200</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -1759,6 +2347,27 @@
       </c>
       <c r="R27" s="3">
         <v>9</v>
+      </c>
+      <c r="T27" s="1">
+        <v>13</v>
+      </c>
+      <c r="U27" s="1">
+        <v>250</v>
+      </c>
+      <c r="V27" s="1">
+        <v>5</v>
+      </c>
+      <c r="X27" s="1">
+        <v>90</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>200</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
